--- a/08mm_08_09/VglTemp.xlsx
+++ b/08mm_08_09/VglTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Projects\pyt_Semi\08mm_08_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874EA3B9-9AEF-48D0-B536-36D409D102EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C621E1A-E21B-4E4E-95D3-0B75AABD6F7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="24" windowWidth="7680" windowHeight="6636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5440" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kraft" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>Fliessgeschwindigkeit [m/s]</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Strömungswiderstand</t>
   </si>
 </sst>
 </file>
@@ -319,7 +323,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,9 +344,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -366,13 +367,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -406,84 +411,23 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Strömungswiderstand</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Kraft!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hot</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Heiß</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -503,21 +447,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Kraft!$B$3:$B$18</c:f>
@@ -632,7 +561,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A49-42A2-9EC0-F2094DD8DFD9}"/>
@@ -643,19 +572,13 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Kraft!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Lauwarm</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -675,21 +598,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Kraft!$B$3:$B$18</c:f>
@@ -804,7 +712,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A49-42A2-9EC0-F2094DD8DFD9}"/>
@@ -815,19 +723,13 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Kraft!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Kalt</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -847,21 +749,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Kraft!$B$3:$B$18</c:f>
@@ -976,7 +863,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0A49-42A2-9EC0-F2094DD8DFD9}"/>
@@ -1035,8 +922,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Strömungsgeschwindigkeit</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Strömungsgeschwindigkeit [m/s]</a:t>
+                  <a:t> [m/s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1045,8 +936,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41454519105357229"/>
-              <c:y val="0.8441846677966951"/>
+              <c:x val="0.41635638840580474"/>
+              <c:y val="0.86038160792814811"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1160,8 +1051,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Strömungswiderstand</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Strömungswiderstand [N]</a:t>
+                  <a:t> [N]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1233,6 +1128,712 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="567349904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Alte Berechnung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kraft!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11527271598425341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kraft!$G$8:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.894499516958455E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4786881313685173E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3120253954365964E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6242213524795757E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4262293908666453E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0341031743165558E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9761090993380776E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6714487763717202E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42AB-4EFC-9462-098613EE1719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kraft!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11527271598425341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kraft!$H$8:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5030997731239425E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4054561843342073E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3454840744110498E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8105916899864395E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7239714054601493E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8053220705277481E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6959889777264939E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3057131577717162E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42AB-4EFC-9462-098613EE1719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cold</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kraft!$B$8:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11527271598425341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kraft!$I$8:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1100817586758389E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599573168764742E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.958654323964423E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3805562324175267E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6277466782277511E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9080628665203446E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.363364836475312E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.108367074959477E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42AB-4EFC-9462-098613EE1719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="626660144"/>
+        <c:axId val="626656208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="626660144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strömungsgeschwindigkeit [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626656208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626656208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strömungswiderstand [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626660144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1319,7 +1920,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1945,7 +2546,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2404,7 +3005,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2551,6 +3152,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>77.0154</c:v>
                 </c:pt>
@@ -2882,7 +3486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3361,7 +3965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3514,6 +4118,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>78.7958</c:v>
                 </c:pt>
@@ -3859,7 +4466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4330,7 +4937,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5148,6 +5755,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9276,20 +9923,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9309,6 +10472,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32904B1F-835B-4B9D-AE68-C799AE42B0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9910,60 +11109,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB2CF4E-1A36-41E2-B280-90CC7EBF6329}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="V66" sqref="V46:V66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="31">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <f xml:space="preserve"> (A3)/(15000*0.045^2*PI())</f>
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <f>((9.81*0.0002675)/0.0098)*B3^2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <f>((9.81*0.0002675)/0.0098)*B3^2</f>
         <v>0</v>
       </c>
@@ -9972,19 +11171,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B18" si="0" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
         <v>1.047933781675031E-2</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <f>((9.81*0.0003994)/0.0098)*B4^2</f>
         <v>4.3905474353605563E-5</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <f>((9.81*0.0003994)/0.0115)*B4^2</f>
         <v>3.7415099883942128E-5</v>
       </c>
@@ -9993,19 +11192,19 @@
         <v>2.8494943620220826E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>2.095867563350062E-2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <f t="shared" ref="C5:C18" si="1">((9.81*0.0003994)/0.0098)*B5^2</f>
         <v>1.7562189741442225E-4</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <f t="shared" ref="D5:D18" si="2">((9.81*0.0003994)/0.0115)*B5^2</f>
         <v>1.4966039953576851E-4</v>
       </c>
@@ -10014,19 +11213,19 @@
         <v>1.139797744808833E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>3.1438013450250928E-2</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <f t="shared" si="1"/>
         <v>3.9514926918245001E-4</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <f t="shared" si="2"/>
         <v>3.3673589895547907E-4</v>
       </c>
@@ -10035,19 +11234,19 @@
         <v>2.5645449258198739E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>4.1917351267001239E-2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <f t="shared" si="1"/>
         <v>7.0248758965768901E-4</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <f t="shared" si="2"/>
         <v>5.9864159814307404E-4</v>
       </c>
@@ -10055,20 +11254,29 @@
         <f t="shared" si="3"/>
         <v>4.5591909792353321E-4</v>
       </c>
+      <c r="G7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>5.2396689083751551E-2</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f t="shared" si="1"/>
         <v>1.0976368588401391E-3</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <f t="shared" si="2"/>
         <v>9.3537749709855312E-4</v>
       </c>
@@ -10076,20 +11284,29 @@
         <f t="shared" si="3"/>
         <v>7.1237359050552065E-4</v>
       </c>
+      <c r="G8">
+        <v>2.894499516958455E-4</v>
+      </c>
+      <c r="H8">
+        <v>2.5030997731239425E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.1100817586758389E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>6.2876026900501855E-2</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f t="shared" si="1"/>
         <v>1.5805970767298E-3</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <f t="shared" si="2"/>
         <v>1.3469435958219163E-3</v>
       </c>
@@ -10097,20 +11314,29 @@
         <f t="shared" si="3"/>
         <v>1.0258179703279495E-3</v>
       </c>
+      <c r="G9">
+        <v>3.4786881313685173E-4</v>
+      </c>
+      <c r="H9">
+        <v>3.4054561843342073E-4</v>
+      </c>
+      <c r="I9">
+        <v>2.2599573168764742E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
         <v>7</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>7.3355364717252167E-2</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f t="shared" si="1"/>
         <v>2.1513682433266725E-3</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <f t="shared" si="2"/>
         <v>1.8333398943131643E-3</v>
       </c>
@@ -10118,20 +11344,29 @@
         <f t="shared" si="3"/>
         <v>1.3962522373908205E-3</v>
       </c>
+      <c r="G10">
+        <v>4.3120253954365964E-4</v>
+      </c>
+      <c r="H10">
+        <v>4.3454840744110498E-4</v>
+      </c>
+      <c r="I10">
+        <v>2.958654323964423E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
         <v>8</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>8.3834702534002478E-2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <f t="shared" si="1"/>
         <v>2.809950358630756E-3</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <f t="shared" si="2"/>
         <v>2.3945663925722962E-3</v>
       </c>
@@ -10139,20 +11374,29 @@
         <f t="shared" si="3"/>
         <v>1.8236763916941328E-3</v>
       </c>
+      <c r="G11">
+        <v>4.6242213524795757E-4</v>
+      </c>
+      <c r="H11">
+        <v>4.8105916899864395E-4</v>
+      </c>
+      <c r="I11">
+        <v>3.3805562324175267E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="31">
         <v>9</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>9.431404035075279E-2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <f t="shared" si="1"/>
         <v>3.5563434226420503E-3</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <f t="shared" si="2"/>
         <v>3.0306230905993124E-3</v>
       </c>
@@ -10160,20 +11404,29 @@
         <f t="shared" si="3"/>
         <v>2.308090433237887E-3</v>
       </c>
+      <c r="G12">
+        <v>5.4262293908666453E-4</v>
+      </c>
+      <c r="H12">
+        <v>4.7239714054601493E-4</v>
+      </c>
+      <c r="I12">
+        <v>4.6277466782277511E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>0.1047933781675031</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f t="shared" si="1"/>
         <v>4.3905474353605565E-3</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <f t="shared" si="2"/>
         <v>3.7415099883942125E-3</v>
       </c>
@@ -10181,20 +11434,29 @@
         <f t="shared" si="3"/>
         <v>2.8494943620220826E-3</v>
       </c>
+      <c r="G13">
+        <v>6.0341031743165558E-4</v>
+      </c>
+      <c r="H13">
+        <v>5.8053220705277481E-4</v>
+      </c>
+      <c r="I13">
+        <v>4.9080628665203446E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="31">
         <v>11</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>0.11527271598425341</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <f t="shared" si="1"/>
         <v>5.3125623967862738E-3</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <f t="shared" si="2"/>
         <v>4.5272270859569976E-3</v>
       </c>
@@ -10202,20 +11464,29 @@
         <f t="shared" si="3"/>
         <v>3.4478881780467202E-3</v>
       </c>
+      <c r="G14">
+        <v>6.9761090993380776E-4</v>
+      </c>
+      <c r="H14">
+        <v>6.6959889777264939E-4</v>
+      </c>
+      <c r="I14">
+        <v>5.363364836475312E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
         <v>12</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>0.12575205380100371</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <f t="shared" si="1"/>
         <v>6.3223883069192001E-3</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <f t="shared" si="2"/>
         <v>5.3877743832876652E-3</v>
       </c>
@@ -10223,20 +11494,29 @@
         <f t="shared" si="3"/>
         <v>4.1032718813117982E-3</v>
       </c>
+      <c r="G15">
+        <v>7.6714487763717202E-4</v>
+      </c>
+      <c r="H15">
+        <v>7.3057131577717162E-4</v>
+      </c>
+      <c r="I15">
+        <v>6.108367074959477E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="31">
         <v>13</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>0.13623139161775402</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <f t="shared" si="1"/>
         <v>7.4200251657593396E-3</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <f t="shared" si="2"/>
         <v>6.3231518803862196E-3</v>
       </c>
@@ -10245,19 +11525,19 @@
         <v>4.8156454718173191E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31">
         <v>14</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>0.14671072943450433</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <f t="shared" si="1"/>
         <v>8.6054729733066899E-3</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <f t="shared" si="2"/>
         <v>7.3333595772526574E-3</v>
       </c>
@@ -10266,23 +11546,23 @@
         <v>5.585008949563282E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31">
         <v>15</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>0.15719006725125464</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <f t="shared" si="1"/>
         <v>9.8787317295612517E-3</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <f t="shared" si="2"/>
         <v>8.4183974738869776E-3</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f t="shared" si="3"/>
         <v>6.4113623145496852E-3</v>
       </c>
@@ -10301,29 +11581,29 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="F1" sqref="F1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>5.2396689083751551E-2</v>
       </c>
@@ -10333,11 +11613,11 @@
       <c r="C2" s="1">
         <v>77.0154</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>80.572599999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>6.2876026900501855E-2</v>
       </c>
@@ -10347,11 +11627,11 @@
       <c r="C3" s="1">
         <v>74.333500000000001</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>79.896199999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>7.3355364717252167E-2</v>
       </c>
@@ -10361,11 +11641,11 @@
       <c r="C4" s="1">
         <v>70.286100000000005</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>76.722399999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>8.3834702534002478E-2</v>
       </c>
@@ -10375,11 +11655,11 @@
       <c r="C5" s="1">
         <v>68.072800000000001</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>74.786299999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>9.431404035075279E-2</v>
       </c>
@@ -10389,11 +11669,11 @@
       <c r="C6" s="1">
         <v>65.486400000000003</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>68.946799999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>0.1047933781675031</v>
       </c>
@@ -10403,11 +11683,11 @@
       <c r="C7" s="1">
         <v>63.2149</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>67.604699999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>0.11527271598425341</v>
       </c>
@@ -10417,21 +11697,21 @@
       <c r="C8" s="1">
         <v>58.682200000000002</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>65.3964</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17">
         <v>0.12575205380100371</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>53.451300000000003</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>55.450699999999998</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>61.694699999999997</v>
       </c>
     </row>
@@ -10443,22 +11723,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D3CA2-1671-4F83-A5A4-FAD2C30CB5E9}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -10471,27 +11752,32 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="3"/>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -10501,8 +11787,12 @@
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
+      <c r="J2">
+        <f>COS(RADIANS(C2))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>7.8913279575395439E-20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10525,16 +11815,20 @@
         <v>364.2439189249535</v>
       </c>
       <c r="H3">
-        <f>1/TAN(RADIANS(90-C3))</f>
+        <f t="shared" ref="H3:H10" si="0">1/TAN(RADIANS(90-C3))</f>
         <v>4.3367936245802214</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="1">COS(RADIANS(C3))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>2.894499516958455E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B12" si="0" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
+        <f t="shared" ref="B4:B12" si="2" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
         <v>6.2876026900501855E-2</v>
       </c>
       <c r="C4" s="1">
@@ -10544,7 +11838,7 @@
         <v>1.4451000000000001</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="1">((9.81*0.0003994)/0.0098)*B4^2</f>
+        <f t="shared" ref="E4:E12" si="3">((9.81*0.0003994)/0.0098)*B4^2</f>
         <v>1.5805970767298E-3</v>
       </c>
       <c r="G4">
@@ -10552,16 +11846,20 @@
         <v>252.94716592010664</v>
       </c>
       <c r="H4">
-        <f>1/TAN(RADIANS(90-C4))</f>
+        <f t="shared" si="0"/>
         <v>3.5656147682439716</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3.4786881313685173E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3355364717252167E-2</v>
       </c>
       <c r="C5" s="1">
@@ -10571,24 +11869,28 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E5" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1513682433266725E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="4">1/(B5^2)</f>
+        <v>185.83873414538442</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.8151810829451591</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>2.1513682433266725E-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G10" si="2">1/(B5^2)</f>
-        <v>185.83873414538442</v>
-      </c>
-      <c r="H5">
-        <f>1/TAN(RADIANS(90-C5))</f>
-        <v>2.8151810829451591</v>
+        <v>4.3120253954365964E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3834702534002478E-2</v>
       </c>
       <c r="C6" s="1">
@@ -10598,24 +11900,28 @@
         <v>1.1827300000000001</v>
       </c>
       <c r="E6" s="5">
+        <f t="shared" si="3"/>
+        <v>2.809950358630756E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>142.28278083005995</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.6001504821479058</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>2.809950358630756E-3</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>142.28278083005995</v>
-      </c>
-      <c r="H6">
-        <f>1/TAN(RADIANS(90-C6))</f>
-        <v>2.6001504821479058</v>
+        <v>4.6242213524795757E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.431404035075279E-2</v>
       </c>
       <c r="C7" s="1">
@@ -10625,24 +11931,28 @@
         <v>1.0701000000000001</v>
       </c>
       <c r="E7" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5563434226420503E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>112.42096263115849</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.1531838372169076</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>3.5563434226420503E-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>112.42096263115849</v>
-      </c>
-      <c r="H7">
-        <f>1/TAN(RADIANS(90-C7))</f>
-        <v>2.1531838372169076</v>
+        <v>5.4262293908666453E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1047933781675031</v>
       </c>
       <c r="C8" s="1">
@@ -10652,24 +11962,28 @@
         <v>1.0654999999999999</v>
       </c>
       <c r="E8" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3905474353605565E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>91.060979731238376</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.8862187457987307</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>4.3905474353605565E-3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>91.060979731238376</v>
-      </c>
-      <c r="H8">
-        <f>1/TAN(RADIANS(90-C8))</f>
-        <v>1.8862187457987307</v>
+        <v>6.0341031743165558E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11527271598425341</v>
       </c>
       <c r="C9" s="1">
@@ -10679,24 +11993,28 @@
         <v>1.2383999999999999</v>
       </c>
       <c r="E9" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3125623967862738E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>75.25700804234576</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.5524221142608623</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>5.3125623967862738E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>75.25700804234576</v>
-      </c>
-      <c r="H9">
-        <f>1/TAN(RADIANS(90-C9))</f>
-        <v>1.5524221142608623</v>
+        <v>6.9761090993380776E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12575205380100371</v>
       </c>
       <c r="C10" s="1">
@@ -10706,24 +12024,28 @@
         <v>3.2204000000000002</v>
       </c>
       <c r="E10" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3223883069192001E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>63.23679148002666</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.3490228721575102</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>6.3223883069192001E-3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>63.23679148002666</v>
-      </c>
-      <c r="H10">
-        <f>1/TAN(RADIANS(90-C10))</f>
-        <v>1.3490228721575102</v>
+        <v>7.6714487763717202E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13.1</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13727932539942905</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -10733,37 +12055,37 @@
         <v>15</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5346184538222505E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
-      <c r="B12" s="18">
-        <f t="shared" si="0"/>
+      <c r="B12" s="17">
+        <f t="shared" si="2"/>
         <v>0.14671072943450433</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.6054729733066899E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>6</v>
       </c>
@@ -10771,7 +12093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G16">
         <v>9.7999999999999997E-3</v>
       </c>
@@ -10791,22 +12113,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC1ACC5-41AD-4C1F-B599-ECF220C14CDF}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -10819,27 +12141,32 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="3"/>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -10849,8 +12176,12 @@
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
+      <c r="J2">
+        <f>COS(RADIANS(C2))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>7.8913279575395439E-20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10876,13 +12207,17 @@
         <f>1/TAN(RADIANS(90-C3))</f>
         <v>5.0484267585268272</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="0">COS(RADIANS(C3))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>2.5030997731239425E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B12" si="0" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
+        <f t="shared" ref="B4:B12" si="1" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
         <v>6.2876026900501855E-2</v>
       </c>
       <c r="C4" s="1">
@@ -10892,7 +12227,7 @@
         <v>1.2041999999999999</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="1">((9.81*0.0003994)/0.0115)*B4^2</f>
+        <f t="shared" ref="E4:E12" si="2">((9.81*0.0003994)/0.0115)*B4^2</f>
         <v>1.3469435958219163E-3</v>
       </c>
       <c r="G4">
@@ -10903,40 +12238,48 @@
         <f>1/TAN(RADIANS(90-C4))</f>
         <v>3.6482534726894609</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>3.4054561843342073E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3355364717252167E-2</v>
       </c>
       <c r="C5" s="1">
         <v>70.286100000000005</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2.1263999999999998</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8333398943131643E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="2">1/(B5^2)</f>
+        <f t="shared" ref="G5:G12" si="3">1/(B5^2)</f>
         <v>185.83873414538442</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="3">1/TAN(RADIANS(90-C5))</f>
+        <f t="shared" ref="H5:H11" si="4">1/TAN(RADIANS(90-C5))</f>
         <v>2.7907581861095219</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.3454840744110498E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3834702534002478E-2</v>
       </c>
       <c r="C6" s="1">
@@ -10946,24 +12289,28 @@
         <v>3.0017</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3945663925722962E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142.28278083005995</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4841697859418357</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4.8105916899864395E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.431404035075279E-2</v>
       </c>
       <c r="C7" s="1">
@@ -10973,24 +12320,28 @@
         <v>0.71460000000000001</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0306230905993124E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112.42096263115849</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5370246058779031</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4.7239714054601493E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1047933781675031</v>
       </c>
       <c r="C8" s="1">
@@ -11000,24 +12351,28 @@
         <v>1.2668999999999999</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7415099883942125E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.060979731238376</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9809434005839761</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5.8053220705277481E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11527271598425341</v>
       </c>
       <c r="C9" s="1">
@@ -11027,24 +12382,28 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5272270859569976E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.25700804234576</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6435605992929341</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>6.6959889777264939E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12575205380100371</v>
       </c>
       <c r="C10" s="1">
@@ -11054,24 +12413,28 @@
         <v>1.7466999999999999</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3877743832876652E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.23679148002666</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4523303232213052</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>7.3057131577717162E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13.1</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13727932539942905</v>
       </c>
       <c r="C11" s="1">
@@ -11081,53 +12444,61 @@
         <v>1.8788</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4208052910833084E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.062746769557933</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3633288640000469</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>7.6192056289852231E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
-      <c r="B12" s="18">
-        <f t="shared" si="0"/>
+      <c r="B12" s="17">
+        <f t="shared" si="1"/>
         <v>0.14671072943450433</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>50.951300000000003</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1.4343999999999999</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3333595772526574E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.459683536346105</v>
       </c>
       <c r="H12">
         <f>1/TAN(RADIANS(90-C12))</f>
         <v>1.2327532432512416</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>8.1155625460354599E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>6</v>
       </c>
@@ -11135,7 +12506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G16">
         <v>1.15E-2</v>
       </c>
@@ -11154,22 +12525,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC7D93E-6FC7-4F7F-A505-076A85EFB08F}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="E2:E12 B2:B12"/>
+      <selection activeCell="J3" sqref="J3:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -11182,16 +12554,19 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="3"/>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11204,7 +12579,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -11214,8 +12589,12 @@
         <v>5</v>
       </c>
       <c r="I2" s="2"/>
+      <c r="J2">
+        <f>COS(RADIANS(C2))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>7.8913279575395439E-20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11241,13 +12620,17 @@
         <f>1/TAN(RADIANS(90-C3))</f>
         <v>6.0226345563438501</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="0">COS(RADIANS(C3))*(9.81*(0.0003994 - 1000*(4/3)*PI()*0.004^3))</f>
+        <v>2.1100817586758389E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B12" si="0" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
+        <f t="shared" ref="B4:B12" si="1" xml:space="preserve"> (A4)/(15000*0.045^2*PI())</f>
         <v>6.2876026900501855E-2</v>
       </c>
       <c r="C4" s="1">
@@ -11257,7 +12640,7 @@
         <v>0.70740000000000003</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="1">((9.81*0.0003994)/0.0151)*B4^2</f>
+        <f t="shared" ref="E4:E12" si="2">((9.81*0.0003994)/0.0151)*B4^2</f>
         <v>1.0258179703279495E-3</v>
       </c>
       <c r="G4">
@@ -11268,13 +12651,17 @@
         <f>1/TAN(RADIANS(90-C4))</f>
         <v>5.6118121688134126</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2.2599573168764742E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3355364717252167E-2</v>
       </c>
       <c r="C5" s="1">
@@ -11284,24 +12671,28 @@
         <v>1.5654999999999999</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3962522373908205E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="2">1/(B5^2)</f>
+        <f t="shared" ref="G5:G12" si="3">1/(B5^2)</f>
         <v>185.83873414538442</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="3">1/TAN(RADIANS(90-C5))</f>
+        <f t="shared" ref="H5:H11" si="4">1/TAN(RADIANS(90-C5))</f>
         <v>4.2376971669945442</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.958654323964423E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3834702534002478E-2</v>
       </c>
       <c r="C6" s="1">
@@ -11311,24 +12702,28 @@
         <v>0.82120000000000004</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8236763916941328E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142.28278083005995</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6771362031400763</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3.3805562324175267E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.431404035075279E-2</v>
       </c>
       <c r="C7" s="1">
@@ -11338,24 +12733,28 @@
         <v>0.71460000000000001</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.308090433237887E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112.42096263115849</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5978766353835092</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4.6277466782277511E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1047933781675031</v>
       </c>
       <c r="C8" s="1">
@@ -11365,24 +12764,28 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8494943620220826E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.060979731238376</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4267468614102872</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4.9080628665203446E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11527271598425341</v>
       </c>
       <c r="C9" s="1">
@@ -11392,24 +12795,28 @@
         <v>1.7729999999999999</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4478881780467202E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.25700804234576</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.183826903452569</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5.363364836475312E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12575205380100371</v>
       </c>
       <c r="C10" s="1">
@@ -11419,24 +12826,28 @@
         <v>1.8</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1032718813117982E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.23679148002666</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8567900523273961</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>6.108367074959477E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13623139161775402</v>
       </c>
       <c r="C11" s="1">
@@ -11446,53 +12857,61 @@
         <v>1.2603</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8156454718173191E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.882236527359986</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8116911802107551</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>6.2252476617832289E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>13.5</v>
       </c>
-      <c r="B12" s="18">
-        <f t="shared" si="0"/>
+      <c r="B12" s="17">
+        <f t="shared" si="1"/>
         <v>0.14147106052612918</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>61.376719999999999</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1.6833</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1932034747852454E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.964872280514882</v>
       </c>
       <c r="H12">
         <f>1/TAN(RADIANS(90-C12))</f>
         <v>1.8323579041450015</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6.1712182423346305E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>6</v>
       </c>
@@ -11500,7 +12919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G16">
         <v>1.9199999999999998E-2</v>
       </c>
